--- a/Linea Base/WS/Linea Base 1 Fin del Inception/WS-BP.xlsx
+++ b/Linea Base/WS/Linea Base 1 Fin del Inception/WS-BP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26191534-13F3-4DA0-9D9B-768DBB061679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18D88E2-A4C5-48FB-B9BF-302A1242C47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>List</t>
   </si>
@@ -75,50 +75,22 @@
     <t>https://trello.com/c/bCtn5K6l</t>
   </si>
   <si>
-    <t>Paleta de colores</t>
-  </si>
-  <si>
-    <t>#5853FD
-#01D213
-#FE4D13
-#5B6980
-#181340
-#E0E0E0</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/vblNUGvQ</t>
-  </si>
-  <si>
-    <t>Credenciales</t>
-  </si>
-  <si>
-    <t>Mongo Atlas: growew_c549y@xeoty.com WhalE2021@
-            MongoDB User: AdminWhalE rJl1OpITT8TJYM9V
-Cloudinary: getab_152@hotmail.com WhalE2021!
-Sendingblue: piero@mvp.pe 123123123
-Mercado pago: 
-   Visa
-   APRO
-   4009 1753 3280 6176
-   123
-   11/25
-Heroku: https://whale-unmsm.herokuapp.com/</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/jZPwJ29s</t>
-  </si>
-  <si>
-    <t>Usuarios</t>
-  </si>
-  <si>
-    <t>Admin: growew_c549y@xeoty.com WhalE2021
-Usuario 1: getab_256@hotmail.com Abc123123
-Usuario 2: erick@gmail.com Abc123123
-Usuario 3: gabriel@gmail.com Abc123123
-Usuario 4: getab152@gmail.com Abcd12341234</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/CuOd8e9R</t>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>[archived] Detalle de producto: No carga la página cuando no estoy registrado</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/CdT6NfRa</t>
+  </si>
+  <si>
+    <t>[archived] No puedo registrarme en la plataforma</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/coo6uCsM</t>
   </si>
   <si>
     <t>Backlog</t>
@@ -127,6 +99,9 @@
     <t>Como usuario administrador quiero ver el detalle de las ventas realizadas en WhalE</t>
   </si>
   <si>
+    <t>Historia de usuario</t>
+  </si>
+  <si>
     <t>https://trello.com/c/xVukPaRD</t>
   </si>
   <si>
@@ -142,10 +117,160 @@
     <t>https://trello.com/c/wT6TThP4</t>
   </si>
   <si>
+    <t>Como usuario cliente deseo pagar un producto para poder adquirirlo y contribuir con el medio ambiente</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/9fNpgOFQ</t>
+  </si>
+  <si>
+    <t>Como usuario cliente deseo ver el detalle de un mueble en oferta para conocer más sobre el mueble y su impacto en el medio ambiente</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/IasGSQTF</t>
+  </si>
+  <si>
+    <t>Como usuario cliente deseo crear un mueble para ofertarlo en la web</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/PrxsGf0J</t>
+  </si>
+  <si>
+    <t>Como usuario administrador quiero eliminar un mueble en oferta para evitar productos falsos o maliciosos</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/6Qisi6Zu</t>
+  </si>
+  <si>
+    <t>Como usuario administrador quiero explotar usuarios en una lista de excel para gestionar sus contactos</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/dIQFDJeC</t>
+  </si>
+  <si>
+    <t>Como usuario administrador quiero ver una lista de todos los muebles creados por mis usuarios para gestionarlos</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/eq1ktmed</t>
+  </si>
+  <si>
+    <t>Como usuario cliente deseo una landing con todos los muebles que se estén ofertando para poder conocer las propuestas</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/qbkifON2</t>
+  </si>
+  <si>
+    <t>Como usuario administrador quiero ver una lista de todos los muebles vendidos en WhalE para gestionarlos</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/eu4k3WmG</t>
+  </si>
+  <si>
     <t>Como usuario cliente quiero ver la el detalle de mis compras realizadas en la plataforma digital</t>
   </si>
   <si>
     <t>https://trello.com/c/oyTXhR70</t>
+  </si>
+  <si>
+    <t>Como usuario administrador quiero ver el detalle de todos los muebles creados para gestionarlos</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/SbK0TOBj</t>
+  </si>
+  <si>
+    <t>Como usuario cliente deseo registrarme en la plataforma digital para hacer poder comprar o vender muebles</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/VkQvUzCV</t>
+  </si>
+  <si>
+    <t>Como usuario general quiero recuperar mi contraseña para restablecer mi acceso</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/rrD1IKy9</t>
+  </si>
+  <si>
+    <t>Como usuario cliente deseo ingresar al sistema para hacer poder comprar o vender muebles</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/lZGaPonQ</t>
+  </si>
+  <si>
+    <t>Como usuario cliente quiero ver la lista de mis muebles ofertados para poder gestionarlos</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/6vG5Vylq</t>
+  </si>
+  <si>
+    <t>Integración con mercado pago</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/Iy84pzpv</t>
+  </si>
+  <si>
+    <t>Creación y conexión a Oracle DB</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/a7yGaFWn</t>
+  </si>
+  <si>
+    <t>Filtros ¿por categorías y subcategorías de los muebles ofertados en la landing page</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/nHiTXDCq</t>
+  </si>
+  <si>
+    <t>Crear los middlewares de acceso</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/AffYDvH2</t>
+  </si>
+  <si>
+    <t>Integración con cloudinary para guardar imágenes</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/8UJiLZfu</t>
+  </si>
+  <si>
+    <t>Subir la calculadora de CO2 a la BD</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/OYaTjtPP</t>
+  </si>
+  <si>
+    <t>Implementación del template al proyecto</t>
+  </si>
+  <si>
+    <t>http://preview.themeforest.net/item/mobel-furniture-website-template/full_screen_preview/20382155?_ga=2.269202097.1519667428.1616286327-326541934.1614093861</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/yfOkY2MT</t>
+  </si>
+  <si>
+    <t>Integración con sendinblue para el envío de correos electrónicos</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/e9Acm7Pp</t>
+  </si>
+  <si>
+    <t>Adecuación a la línea gráfica, logos y tipografía</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/SDEX58SJ</t>
+  </si>
+  <si>
+    <t>Cambio de credenciales en la plataforma</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/wreTRMt3</t>
+  </si>
+  <si>
+    <t>Despliegue del proyecto a heroku</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/jq6pqSnf</t>
   </si>
 </sst>
 </file>
@@ -181,10 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,504 +647,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G2" sqref="G2:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1">
+        <v>25</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="1">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="1">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="I27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="1">
         <v>26</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="I28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="1">
         <v>27</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="I29" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1029,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1106,6 +1361,48 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
